--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2050.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2050.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157677004805755</v>
+        <v>1.306258201599121</v>
       </c>
       <c r="B1">
-        <v>2.587710665616017</v>
+        <v>1.924432754516602</v>
       </c>
       <c r="C1">
-        <v>5.471045240553035</v>
+        <v>5.152933597564697</v>
       </c>
       <c r="D1">
-        <v>2.639210801658212</v>
+        <v>1.970720291137695</v>
       </c>
       <c r="E1">
-        <v>1.212810634166996</v>
+        <v>1.084469199180603</v>
       </c>
     </row>
   </sheetData>
